--- a/mbs-perturbation/greedy/elm/smote/chatty_elm__smote_results.xlsx
+++ b/mbs-perturbation/greedy/elm/smote/chatty_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.927461139896373</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7782608695652173</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8463356973995271</v>
+        <v>0.6534090909090909</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9309429700734049</v>
+        <v>0.8002136752136753</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.88</v>
+        <v>0.8145695364238411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.6059113300492611</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7096774193548386</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9411021900561649</v>
+        <v>0.8062552281810577</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.934010152284264</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7634854771784232</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8401826484018263</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9220333844900434</v>
+        <v>0.7511753479495414</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7564102564102564</v>
+        <v>0.5728643216080402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.6765578635014837</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9364174419484154</v>
+        <v>0.8331588498045784</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8917525773195877</v>
+        <v>0.8376623376623377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7723214285714286</v>
+        <v>0.5608695652173913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8277511961722488</v>
+        <v>0.671875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9026085805084745</v>
+        <v>0.8114130434782608</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9169673545452064</v>
+        <v>0.7945441960364963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7330145252639839</v>
+        <v>0.5681310635769588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8133608208371168</v>
+        <v>0.6620787144568453</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9266209134153005</v>
+        <v>0.8004432289254227</v>
       </c>
     </row>
   </sheetData>
